--- a/Code/Results/Cases/Case_4_176/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_176/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.019421426669205</v>
+        <v>1.05973035074357</v>
       </c>
       <c r="D2">
-        <v>1.032573602206977</v>
+        <v>1.059168720306137</v>
       </c>
       <c r="E2">
-        <v>1.027471659998425</v>
+        <v>1.063424380384006</v>
       </c>
       <c r="F2">
-        <v>1.021837009646066</v>
+        <v>1.065024848663887</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048768323229799</v>
+        <v>1.04967398027987</v>
       </c>
       <c r="J2">
-        <v>1.041036367186647</v>
+        <v>1.064714865573094</v>
       </c>
       <c r="K2">
-        <v>1.043597047285162</v>
+        <v>1.06189895930655</v>
       </c>
       <c r="L2">
-        <v>1.038561091409774</v>
+        <v>1.066143056990225</v>
       </c>
       <c r="M2">
-        <v>1.033000277360475</v>
+        <v>1.067739202757813</v>
       </c>
       <c r="N2">
-        <v>1.042514758236593</v>
+        <v>1.06622688280671</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.027446255016394</v>
+        <v>1.061256273571145</v>
       </c>
       <c r="D3">
-        <v>1.03895754267373</v>
+        <v>1.060384423101575</v>
       </c>
       <c r="E3">
-        <v>1.034995080266088</v>
+        <v>1.064901751393008</v>
       </c>
       <c r="F3">
-        <v>1.030255589637387</v>
+        <v>1.066701514120702</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052139061134892</v>
+        <v>1.050222517550651</v>
       </c>
       <c r="J3">
-        <v>1.047215678388622</v>
+        <v>1.065891402775624</v>
       </c>
       <c r="K3">
-        <v>1.049115086641061</v>
+        <v>1.062927822446664</v>
       </c>
       <c r="L3">
-        <v>1.045198947728817</v>
+        <v>1.067433774530817</v>
       </c>
       <c r="M3">
-        <v>1.040515444385913</v>
+        <v>1.069229033734981</v>
       </c>
       <c r="N3">
-        <v>1.048702844769251</v>
+        <v>1.067405090827018</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.032469128057576</v>
+        <v>1.062241526993218</v>
       </c>
       <c r="D4">
-        <v>1.042955139166319</v>
+        <v>1.061169064399718</v>
       </c>
       <c r="E4">
-        <v>1.03970927161953</v>
+        <v>1.065855938953291</v>
       </c>
       <c r="F4">
-        <v>1.035530122655534</v>
+        <v>1.067784646492177</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054235755097518</v>
+        <v>1.050574947199319</v>
       </c>
       <c r="J4">
-        <v>1.051077221462839</v>
+        <v>1.066650174246021</v>
       </c>
       <c r="K4">
-        <v>1.052561366753496</v>
+        <v>1.063591002257221</v>
       </c>
       <c r="L4">
-        <v>1.049350946173818</v>
+        <v>1.068266674012808</v>
       </c>
       <c r="M4">
-        <v>1.045217838494063</v>
+        <v>1.07019080212368</v>
       </c>
       <c r="N4">
-        <v>1.052569871677559</v>
+        <v>1.068164939839935</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.034542571153072</v>
+        <v>1.06265522933692</v>
       </c>
       <c r="D5">
-        <v>1.044605672123182</v>
+        <v>1.061498455698135</v>
       </c>
       <c r="E5">
-        <v>1.041656460919498</v>
+        <v>1.066256664132263</v>
       </c>
       <c r="F5">
-        <v>1.037708706056848</v>
+        <v>1.068239579213521</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055098063091881</v>
+        <v>1.050722511425787</v>
       </c>
       <c r="J5">
-        <v>1.052669726186003</v>
+        <v>1.06696856425197</v>
       </c>
       <c r="K5">
-        <v>1.053982109310017</v>
+        <v>1.063869195788671</v>
       </c>
       <c r="L5">
-        <v>1.051064173291259</v>
+        <v>1.068616286714859</v>
       </c>
       <c r="M5">
-        <v>1.04715862365667</v>
+        <v>1.070594600080268</v>
       </c>
       <c r="N5">
-        <v>1.054164637940093</v>
+        <v>1.068483781996213</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.034888540215446</v>
+        <v>1.062724662841297</v>
       </c>
       <c r="D6">
-        <v>1.044881091761246</v>
+        <v>1.061553734471395</v>
       </c>
       <c r="E6">
-        <v>1.041981430583323</v>
+        <v>1.066323923548292</v>
       </c>
       <c r="F6">
-        <v>1.038072292541111</v>
+        <v>1.068315940322796</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055241754999241</v>
+        <v>1.050747253200249</v>
       </c>
       <c r="J6">
-        <v>1.052935354975069</v>
+        <v>1.067021988509945</v>
       </c>
       <c r="K6">
-        <v>1.054219057830922</v>
+        <v>1.063915870282636</v>
       </c>
       <c r="L6">
-        <v>1.051349993755498</v>
+        <v>1.068674956890413</v>
       </c>
       <c r="M6">
-        <v>1.047482436057981</v>
+        <v>1.070662368763973</v>
       </c>
       <c r="N6">
-        <v>1.054430643952507</v>
+        <v>1.068537282122762</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.032496980415057</v>
+        <v>1.062247056850014</v>
       </c>
       <c r="D7">
-        <v>1.042977309460384</v>
+        <v>1.061173467588201</v>
       </c>
       <c r="E7">
-        <v>1.039735423473349</v>
+        <v>1.065861295083936</v>
       </c>
       <c r="F7">
-        <v>1.035559382373965</v>
+        <v>1.067790726947519</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054247351181077</v>
+        <v>1.050576921301567</v>
       </c>
       <c r="J7">
-        <v>1.051098619597109</v>
+        <v>1.066654430927592</v>
       </c>
       <c r="K7">
-        <v>1.05258045899489</v>
+        <v>1.063594721870998</v>
       </c>
       <c r="L7">
-        <v>1.049373962708174</v>
+        <v>1.06827134766007</v>
       </c>
       <c r="M7">
-        <v>1.045243910326476</v>
+        <v>1.070196199760324</v>
       </c>
       <c r="N7">
-        <v>1.052591300199633</v>
+        <v>1.068169202566482</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.022170154616739</v>
+        <v>1.06024648834604</v>
       </c>
       <c r="D8">
-        <v>1.034759836805509</v>
+        <v>1.05957999093484</v>
       </c>
       <c r="E8">
-        <v>1.030047507202795</v>
+        <v>1.063924036534498</v>
       </c>
       <c r="F8">
-        <v>1.024719511850451</v>
+        <v>1.065591861015449</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049925627345351</v>
+        <v>1.049859883193696</v>
       </c>
       <c r="J8">
-        <v>1.043154227516091</v>
+        <v>1.065113009480195</v>
       </c>
       <c r="K8">
-        <v>1.045488682193543</v>
+        <v>1.062247203084005</v>
       </c>
       <c r="L8">
-        <v>1.040835285012832</v>
+        <v>1.066579738081091</v>
       </c>
       <c r="M8">
-        <v>1.035574736990047</v>
+        <v>1.068243170192394</v>
       </c>
       <c r="N8">
-        <v>1.044635626170626</v>
+        <v>1.066625592123827</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002548715922087</v>
+        <v>1.056704561698057</v>
       </c>
       <c r="D9">
-        <v>1.019166289280778</v>
+        <v>1.056756458526215</v>
       </c>
       <c r="E9">
-        <v>1.011685805786187</v>
+        <v>1.06049639715258</v>
       </c>
       <c r="F9">
-        <v>1.004165498748991</v>
+        <v>1.061703053243076</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041610165649927</v>
+        <v>1.048576968169279</v>
       </c>
       <c r="J9">
-        <v>1.028011792377207</v>
+        <v>1.062377142989791</v>
       </c>
       <c r="K9">
-        <v>1.031955876183268</v>
+        <v>1.059852780258857</v>
       </c>
       <c r="L9">
-        <v>1.024592091987349</v>
+        <v>1.063581082027246</v>
       </c>
       <c r="M9">
-        <v>1.017191353235072</v>
+        <v>1.064784002695362</v>
       </c>
       <c r="N9">
-        <v>1.029471687036983</v>
+        <v>1.063885840389197</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9883104453309685</v>
+        <v>1.054331469523272</v>
       </c>
       <c r="D10">
-        <v>1.007873318843781</v>
+        <v>1.054863166677429</v>
       </c>
       <c r="E10">
-        <v>0.9983988332968899</v>
+        <v>1.058201390388278</v>
       </c>
       <c r="F10">
-        <v>0.9892788540113934</v>
+        <v>1.059100351520699</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035509901646808</v>
+        <v>1.047708401880986</v>
       </c>
       <c r="J10">
-        <v>1.01699565345504</v>
+        <v>1.06053952891478</v>
       </c>
       <c r="K10">
-        <v>1.022101858436525</v>
+        <v>1.05824269604313</v>
       </c>
       <c r="L10">
-        <v>1.012797057607612</v>
+        <v>1.061569497286902</v>
       </c>
       <c r="M10">
-        <v>1.003844418256546</v>
+        <v>1.062465395955259</v>
       </c>
       <c r="N10">
-        <v>1.018439903933978</v>
+        <v>1.062045616691423</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9818166771290713</v>
+        <v>1.053300959481014</v>
       </c>
       <c r="D11">
-        <v>1.002730491353041</v>
+        <v>1.054040659164798</v>
       </c>
       <c r="E11">
-        <v>0.9923493256636191</v>
+        <v>1.057205154785645</v>
       </c>
       <c r="F11">
-        <v>0.9824959523450053</v>
+        <v>1.057970793414922</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032713256828264</v>
+        <v>1.047329096021486</v>
       </c>
       <c r="J11">
-        <v>1.011965968499681</v>
+        <v>1.059740466652838</v>
       </c>
       <c r="K11">
-        <v>1.017601097661328</v>
+        <v>1.057542146652254</v>
       </c>
       <c r="L11">
-        <v>1.007416979279345</v>
+        <v>1.06069538728246</v>
       </c>
       <c r="M11">
-        <v>0.9977556951524407</v>
+        <v>1.061458313959382</v>
       </c>
       <c r="N11">
-        <v>1.01340307624907</v>
+        <v>1.061245419669416</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9793497777149328</v>
+        <v>1.052917727987501</v>
       </c>
       <c r="D12">
-        <v>1.000778174326166</v>
+        <v>1.05373472919527</v>
       </c>
       <c r="E12">
-        <v>0.9900529105723818</v>
+        <v>1.056834725047815</v>
       </c>
       <c r="F12">
-        <v>0.9799201842215962</v>
+        <v>1.057550826054682</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031648802688356</v>
+        <v>1.047187717722346</v>
       </c>
       <c r="J12">
-        <v>1.010054554440189</v>
+        <v>1.059443144930911</v>
       </c>
       <c r="K12">
-        <v>1.015890480914422</v>
+        <v>1.057281416796302</v>
       </c>
       <c r="L12">
-        <v>1.005373195000262</v>
+        <v>1.060370231405318</v>
       </c>
       <c r="M12">
-        <v>0.9954424649636563</v>
+        <v>1.061083759824712</v>
       </c>
       <c r="N12">
-        <v>1.01148894776237</v>
+        <v>1.060947675716541</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9798815142682838</v>
+        <v>1.052999953184664</v>
       </c>
       <c r="D13">
-        <v>1.001198927308673</v>
+        <v>1.053800371085979</v>
       </c>
       <c r="E13">
-        <v>0.9905478194182287</v>
+        <v>1.056914201006909</v>
       </c>
       <c r="F13">
-        <v>0.9804753438901697</v>
+        <v>1.05764092875159</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031878334248665</v>
+        <v>1.047218065972597</v>
       </c>
       <c r="J13">
-        <v>1.010466586475511</v>
+        <v>1.059506944875616</v>
       </c>
       <c r="K13">
-        <v>1.01625923691297</v>
+        <v>1.057337367651885</v>
       </c>
       <c r="L13">
-        <v>1.005813725667291</v>
+        <v>1.060439999982896</v>
       </c>
       <c r="M13">
-        <v>0.9959410871354296</v>
+        <v>1.061164124826294</v>
       </c>
       <c r="N13">
-        <v>1.011901564930443</v>
+        <v>1.061011566264484</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9816139155836786</v>
+        <v>1.053269290779158</v>
       </c>
       <c r="D14">
-        <v>1.00256999550501</v>
+        <v>1.054015379393981</v>
       </c>
       <c r="E14">
-        <v>0.9921605410159157</v>
+        <v>1.057174542831903</v>
       </c>
       <c r="F14">
-        <v>0.9822842230585018</v>
+        <v>1.057936087000284</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032625806915009</v>
+        <v>1.047317419614181</v>
       </c>
       <c r="J14">
-        <v>1.011808877347059</v>
+        <v>1.059715900493678</v>
       </c>
       <c r="K14">
-        <v>1.017460513147934</v>
+        <v>1.057520605185495</v>
       </c>
       <c r="L14">
-        <v>1.007248993182185</v>
+        <v>1.060668519491463</v>
       </c>
       <c r="M14">
-        <v>0.997565568100968</v>
+        <v>1.061427363038711</v>
       </c>
       <c r="N14">
-        <v>1.013245762008992</v>
+        <v>1.061220818623491</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9826738621025238</v>
+        <v>1.053435178026563</v>
       </c>
       <c r="D15">
-        <v>1.003409053209399</v>
+        <v>1.054147797987478</v>
       </c>
       <c r="E15">
-        <v>0.9931474931504419</v>
+        <v>1.057334896892201</v>
       </c>
       <c r="F15">
-        <v>0.983391088124281</v>
+        <v>1.058117890454525</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033082873704341</v>
+        <v>1.047378569966576</v>
       </c>
       <c r="J15">
-        <v>1.012630051812807</v>
+        <v>1.059844576506181</v>
       </c>
       <c r="K15">
-        <v>1.018195393041528</v>
+        <v>1.05763343544566</v>
       </c>
       <c r="L15">
-        <v>1.008127151629537</v>
+        <v>1.060809255000428</v>
       </c>
       <c r="M15">
-        <v>0.9985594590585579</v>
+        <v>1.061589488956854</v>
       </c>
       <c r="N15">
-        <v>1.014068102636672</v>
+        <v>1.061349677370692</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9887340462516816</v>
+        <v>1.05439979803063</v>
       </c>
       <c r="D16">
-        <v>1.008208971547481</v>
+        <v>1.054917696192956</v>
       </c>
       <c r="E16">
-        <v>0.9987936810545061</v>
+        <v>1.058267454065652</v>
       </c>
       <c r="F16">
-        <v>0.9897214498439184</v>
+        <v>1.05917526130299</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035692044345538</v>
+        <v>1.047733507101708</v>
       </c>
       <c r="J16">
-        <v>1.017323646411391</v>
+        <v>1.060592488408415</v>
       </c>
       <c r="K16">
-        <v>1.022395328530626</v>
+        <v>1.058289117469916</v>
       </c>
       <c r="L16">
-        <v>1.013148008272648</v>
+        <v>1.061627443361006</v>
       </c>
       <c r="M16">
-        <v>1.004241568479423</v>
+        <v>1.062532166141986</v>
       </c>
       <c r="N16">
-        <v>1.018768362677949</v>
+        <v>1.062098651393614</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9924438852607699</v>
+        <v>1.055004081891487</v>
       </c>
       <c r="D17">
-        <v>1.011149456036928</v>
+        <v>1.055399904272894</v>
       </c>
       <c r="E17">
-        <v>1.002252887848336</v>
+        <v>1.058851750512421</v>
       </c>
       <c r="F17">
-        <v>0.9935983808289339</v>
+        <v>1.059837824670491</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037285615559198</v>
+        <v>1.047955286752287</v>
       </c>
       <c r="J17">
-        <v>1.020195562907012</v>
+        <v>1.061060726930274</v>
       </c>
       <c r="K17">
-        <v>1.02496477880159</v>
+        <v>1.058699501016777</v>
       </c>
       <c r="L17">
-        <v>1.016221530752393</v>
+        <v>1.062139839745842</v>
       </c>
       <c r="M17">
-        <v>1.007719592425769</v>
+        <v>1.063122641706904</v>
       </c>
       <c r="N17">
-        <v>1.021644357624407</v>
+        <v>1.062567554867882</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9945764869537677</v>
+        <v>1.055356267041737</v>
       </c>
       <c r="D18">
-        <v>1.012840493664736</v>
+        <v>1.055680908187163</v>
       </c>
       <c r="E18">
-        <v>1.004242374588364</v>
+        <v>1.059192321931267</v>
       </c>
       <c r="F18">
-        <v>0.9958276516768634</v>
+        <v>1.060224039478847</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038200320668129</v>
+        <v>1.048084337589997</v>
       </c>
       <c r="J18">
-        <v>1.021845965552808</v>
+        <v>1.061333518655589</v>
       </c>
       <c r="K18">
-        <v>1.026441204243935</v>
+        <v>1.058938545961039</v>
       </c>
       <c r="L18">
-        <v>1.017988278734715</v>
+        <v>1.062438415320103</v>
       </c>
       <c r="M18">
-        <v>1.009718796050022</v>
+        <v>1.063466756849099</v>
       </c>
       <c r="N18">
-        <v>1.023297104031264</v>
+        <v>1.062840733988736</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9952984952799663</v>
+        <v>1.055476305357677</v>
       </c>
       <c r="D19">
-        <v>1.013413119597045</v>
+        <v>1.055776679431187</v>
       </c>
       <c r="E19">
-        <v>1.004916089091314</v>
+        <v>1.059308407793279</v>
       </c>
       <c r="F19">
-        <v>0.9965824930913982</v>
+        <v>1.060355687208057</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038509766873455</v>
+        <v>1.048128288242147</v>
       </c>
       <c r="J19">
-        <v>1.02240463044955</v>
+        <v>1.061426478923031</v>
       </c>
       <c r="K19">
-        <v>1.026940949306859</v>
+        <v>1.059019999251633</v>
       </c>
       <c r="L19">
-        <v>1.018586409582803</v>
+        <v>1.062540171863459</v>
       </c>
       <c r="M19">
-        <v>1.010395617319411</v>
+        <v>1.063584040814661</v>
       </c>
       <c r="N19">
-        <v>1.023856562296239</v>
+        <v>1.062933826270421</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9920491274094464</v>
+        <v>1.054939277350045</v>
       </c>
       <c r="D20">
-        <v>1.010836489661064</v>
+        <v>1.055348194853481</v>
       </c>
       <c r="E20">
-        <v>1.001884698378736</v>
+        <v>1.058789085810984</v>
       </c>
       <c r="F20">
-        <v>0.9931857790085897</v>
+        <v>1.059766763553434</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0371161868591</v>
+        <v>1.047931523940483</v>
       </c>
       <c r="J20">
-        <v>1.019890020214674</v>
+        <v>1.061010522934999</v>
       </c>
       <c r="K20">
-        <v>1.024691431703269</v>
+        <v>1.058655504402964</v>
       </c>
       <c r="L20">
-        <v>1.015894488396062</v>
+        <v>1.062084895208521</v>
       </c>
       <c r="M20">
-        <v>1.007349515975243</v>
+        <v>1.063059320306725</v>
       </c>
       <c r="N20">
-        <v>1.021338381026399</v>
+        <v>1.062517279577175</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9811053282820015</v>
+        <v>1.053189990202382</v>
       </c>
       <c r="D21">
-        <v>1.002167446311322</v>
+        <v>1.053952076304611</v>
       </c>
       <c r="E21">
-        <v>0.9916870401185277</v>
+        <v>1.057097889324004</v>
       </c>
       <c r="F21">
-        <v>0.9817531574497398</v>
+        <v>1.057849181376418</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032406423686268</v>
+        <v>1.047288175931405</v>
       </c>
       <c r="J21">
-        <v>1.011414834379651</v>
+        <v>1.059654382546489</v>
       </c>
       <c r="K21">
-        <v>1.017107871779005</v>
+        <v>1.057466660569342</v>
       </c>
       <c r="L21">
-        <v>1.0068276343244</v>
+        <v>1.060601239313482</v>
       </c>
       <c r="M21">
-        <v>0.9970886687524343</v>
+        <v>1.061349859265386</v>
       </c>
       <c r="N21">
-        <v>1.012851159455373</v>
+        <v>1.061159213313762</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.973903947721956</v>
+        <v>1.052087510345933</v>
       </c>
       <c r="D22">
-        <v>0.9964711415464031</v>
+        <v>1.053071881301998</v>
       </c>
       <c r="E22">
-        <v>0.9849867950242156</v>
+        <v>1.056032343012097</v>
       </c>
       <c r="F22">
-        <v>0.9742357863215737</v>
+        <v>1.056641205306375</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02929533168978</v>
+        <v>1.046880856217038</v>
       </c>
       <c r="J22">
-        <v>1.005833843835942</v>
+        <v>1.058798742401892</v>
       </c>
       <c r="K22">
-        <v>1.012112831456721</v>
+        <v>1.056716205829816</v>
       </c>
       <c r="L22">
-        <v>1.000861650964168</v>
+        <v>1.059665667354116</v>
       </c>
       <c r="M22">
-        <v>0.9903355182603002</v>
+        <v>1.060272275753269</v>
       </c>
       <c r="N22">
-        <v>1.007262243264943</v>
+        <v>1.060302358062016</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9777539867292707</v>
+        <v>1.052672209330508</v>
       </c>
       <c r="D23">
-        <v>0.9995156765523325</v>
+        <v>1.053538719652417</v>
       </c>
       <c r="E23">
-        <v>0.9885679074997568</v>
+        <v>1.05659742361021</v>
       </c>
       <c r="F23">
-        <v>0.9782542386895421</v>
+        <v>1.057281800150762</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030959667943221</v>
+        <v>1.04709705314671</v>
       </c>
       <c r="J23">
-        <v>1.008817915220293</v>
+        <v>1.05925261905246</v>
       </c>
       <c r="K23">
-        <v>1.014783699979961</v>
+        <v>1.05711432137197</v>
       </c>
       <c r="L23">
-        <v>1.004051138193827</v>
+        <v>1.060161894596573</v>
       </c>
       <c r="M23">
-        <v>0.9939460252553348</v>
+        <v>1.060843790404528</v>
       </c>
       <c r="N23">
-        <v>1.010250552372938</v>
+        <v>1.060756879269488</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9922275977654453</v>
+        <v>1.054968560608621</v>
       </c>
       <c r="D24">
-        <v>1.010977979863797</v>
+        <v>1.055371560917526</v>
       </c>
       <c r="E24">
-        <v>1.002051154170131</v>
+        <v>1.058817402030237</v>
       </c>
       <c r="F24">
-        <v>0.9933723147204888</v>
+        <v>1.059798873777315</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037192789953132</v>
+        <v>1.047942262288613</v>
       </c>
       <c r="J24">
-        <v>1.020028157945104</v>
+        <v>1.061033208960327</v>
       </c>
       <c r="K24">
-        <v>1.024815014105507</v>
+        <v>1.058675385582752</v>
       </c>
       <c r="L24">
-        <v>1.016042344737828</v>
+        <v>1.062109723196357</v>
       </c>
       <c r="M24">
-        <v>1.007516828283252</v>
+        <v>1.063087933446593</v>
       </c>
       <c r="N24">
-        <v>1.021476714928251</v>
+        <v>1.062539997819261</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.007809068819334</v>
+        <v>1.057622271520727</v>
       </c>
       <c r="D25">
-        <v>1.023343669023959</v>
+        <v>1.05748830505966</v>
       </c>
       <c r="E25">
-        <v>1.016602597855252</v>
+        <v>1.061384231616193</v>
       </c>
       <c r="F25">
-        <v>1.009671029819353</v>
+        <v>1.062710145417196</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043851039918976</v>
+        <v>1.048910956769273</v>
       </c>
       <c r="J25">
-        <v>1.032076454632398</v>
+        <v>1.063086810754482</v>
       </c>
       <c r="K25">
-        <v>1.035590098697593</v>
+        <v>1.060474198607473</v>
       </c>
       <c r="L25">
-        <v>1.028948533200072</v>
+        <v>1.064358469606574</v>
       </c>
       <c r="M25">
-        <v>1.022121047890764</v>
+        <v>1.065680437858125</v>
       </c>
       <c r="N25">
-        <v>1.0335421215788</v>
+        <v>1.064596515963515</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_176/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_176/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.05973035074357</v>
+        <v>1.019421426669204</v>
       </c>
       <c r="D2">
-        <v>1.059168720306137</v>
+        <v>1.032573602206976</v>
       </c>
       <c r="E2">
-        <v>1.063424380384006</v>
+        <v>1.027471659998424</v>
       </c>
       <c r="F2">
-        <v>1.065024848663887</v>
+        <v>1.021837009646066</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04967398027987</v>
+        <v>1.048768323229799</v>
       </c>
       <c r="J2">
-        <v>1.064714865573094</v>
+        <v>1.041036367186646</v>
       </c>
       <c r="K2">
-        <v>1.06189895930655</v>
+        <v>1.043597047285161</v>
       </c>
       <c r="L2">
-        <v>1.066143056990225</v>
+        <v>1.038561091409774</v>
       </c>
       <c r="M2">
-        <v>1.067739202757813</v>
+        <v>1.033000277360475</v>
       </c>
       <c r="N2">
-        <v>1.06622688280671</v>
+        <v>1.042514758236592</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.061256273571145</v>
+        <v>1.027446255016397</v>
       </c>
       <c r="D3">
-        <v>1.060384423101575</v>
+        <v>1.038957542673732</v>
       </c>
       <c r="E3">
-        <v>1.064901751393008</v>
+        <v>1.03499508026609</v>
       </c>
       <c r="F3">
-        <v>1.066701514120702</v>
+        <v>1.030255589637388</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050222517550651</v>
+        <v>1.052139061134893</v>
       </c>
       <c r="J3">
-        <v>1.065891402775624</v>
+        <v>1.047215678388624</v>
       </c>
       <c r="K3">
-        <v>1.062927822446664</v>
+        <v>1.049115086641063</v>
       </c>
       <c r="L3">
-        <v>1.067433774530817</v>
+        <v>1.04519894772882</v>
       </c>
       <c r="M3">
-        <v>1.069229033734981</v>
+        <v>1.040515444385915</v>
       </c>
       <c r="N3">
-        <v>1.067405090827018</v>
+        <v>1.048702844769253</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.062241526993218</v>
+        <v>1.032469128057575</v>
       </c>
       <c r="D4">
-        <v>1.061169064399718</v>
+        <v>1.042955139166318</v>
       </c>
       <c r="E4">
-        <v>1.065855938953291</v>
+        <v>1.039709271619528</v>
       </c>
       <c r="F4">
-        <v>1.067784646492177</v>
+        <v>1.035530122655532</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050574947199319</v>
+        <v>1.054235755097517</v>
       </c>
       <c r="J4">
-        <v>1.066650174246021</v>
+        <v>1.051077221462838</v>
       </c>
       <c r="K4">
-        <v>1.063591002257221</v>
+        <v>1.052561366753495</v>
       </c>
       <c r="L4">
-        <v>1.068266674012808</v>
+        <v>1.049350946173816</v>
       </c>
       <c r="M4">
-        <v>1.07019080212368</v>
+        <v>1.045217838494062</v>
       </c>
       <c r="N4">
-        <v>1.068164939839935</v>
+        <v>1.052569871677558</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.06265522933692</v>
+        <v>1.034542571153072</v>
       </c>
       <c r="D5">
-        <v>1.061498455698135</v>
+        <v>1.044605672123182</v>
       </c>
       <c r="E5">
-        <v>1.066256664132263</v>
+        <v>1.041656460919497</v>
       </c>
       <c r="F5">
-        <v>1.068239579213521</v>
+        <v>1.037708706056848</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050722511425787</v>
+        <v>1.05509806309188</v>
       </c>
       <c r="J5">
-        <v>1.06696856425197</v>
+        <v>1.052669726186003</v>
       </c>
       <c r="K5">
-        <v>1.063869195788671</v>
+        <v>1.053982109310017</v>
       </c>
       <c r="L5">
-        <v>1.068616286714859</v>
+        <v>1.051064173291258</v>
       </c>
       <c r="M5">
-        <v>1.070594600080268</v>
+        <v>1.047158623656669</v>
       </c>
       <c r="N5">
-        <v>1.068483781996213</v>
+        <v>1.054164637940092</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.062724662841297</v>
+        <v>1.034888540215446</v>
       </c>
       <c r="D6">
-        <v>1.061553734471395</v>
+        <v>1.044881091761246</v>
       </c>
       <c r="E6">
-        <v>1.066323923548292</v>
+        <v>1.041981430583323</v>
       </c>
       <c r="F6">
-        <v>1.068315940322796</v>
+        <v>1.038072292541111</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050747253200249</v>
+        <v>1.055241754999241</v>
       </c>
       <c r="J6">
-        <v>1.067021988509945</v>
+        <v>1.052935354975069</v>
       </c>
       <c r="K6">
-        <v>1.063915870282636</v>
+        <v>1.054219057830922</v>
       </c>
       <c r="L6">
-        <v>1.068674956890413</v>
+        <v>1.051349993755498</v>
       </c>
       <c r="M6">
-        <v>1.070662368763973</v>
+        <v>1.047482436057981</v>
       </c>
       <c r="N6">
-        <v>1.068537282122762</v>
+        <v>1.054430643952507</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.062247056850014</v>
+        <v>1.032496980415054</v>
       </c>
       <c r="D7">
-        <v>1.061173467588201</v>
+        <v>1.042977309460382</v>
       </c>
       <c r="E7">
-        <v>1.065861295083936</v>
+        <v>1.039735423473347</v>
       </c>
       <c r="F7">
-        <v>1.067790726947519</v>
+        <v>1.035559382373964</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050576921301567</v>
+        <v>1.054247351181075</v>
       </c>
       <c r="J7">
-        <v>1.066654430927592</v>
+        <v>1.051098619597107</v>
       </c>
       <c r="K7">
-        <v>1.063594721870998</v>
+        <v>1.052580458994888</v>
       </c>
       <c r="L7">
-        <v>1.06827134766007</v>
+        <v>1.049373962708172</v>
       </c>
       <c r="M7">
-        <v>1.070196199760324</v>
+        <v>1.045243910326474</v>
       </c>
       <c r="N7">
-        <v>1.068169202566482</v>
+        <v>1.052591300199631</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.06024648834604</v>
+        <v>1.02217015461674</v>
       </c>
       <c r="D8">
-        <v>1.05957999093484</v>
+        <v>1.03475983680551</v>
       </c>
       <c r="E8">
-        <v>1.063924036534498</v>
+        <v>1.030047507202794</v>
       </c>
       <c r="F8">
-        <v>1.065591861015449</v>
+        <v>1.024719511850452</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049859883193696</v>
+        <v>1.049925627345352</v>
       </c>
       <c r="J8">
-        <v>1.065113009480195</v>
+        <v>1.043154227516091</v>
       </c>
       <c r="K8">
-        <v>1.062247203084005</v>
+        <v>1.045488682193543</v>
       </c>
       <c r="L8">
-        <v>1.066579738081091</v>
+        <v>1.040835285012832</v>
       </c>
       <c r="M8">
-        <v>1.068243170192394</v>
+        <v>1.035574736990048</v>
       </c>
       <c r="N8">
-        <v>1.066625592123827</v>
+        <v>1.044635626170626</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.056704561698057</v>
+        <v>1.002548715922086</v>
       </c>
       <c r="D9">
-        <v>1.056756458526215</v>
+        <v>1.019166289280777</v>
       </c>
       <c r="E9">
-        <v>1.06049639715258</v>
+        <v>1.011685805786186</v>
       </c>
       <c r="F9">
-        <v>1.061703053243076</v>
+        <v>1.004165498748991</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048576968169279</v>
+        <v>1.041610165649927</v>
       </c>
       <c r="J9">
-        <v>1.062377142989791</v>
+        <v>1.028011792377206</v>
       </c>
       <c r="K9">
-        <v>1.059852780258857</v>
+        <v>1.031955876183267</v>
       </c>
       <c r="L9">
-        <v>1.063581082027246</v>
+        <v>1.024592091987348</v>
       </c>
       <c r="M9">
-        <v>1.064784002695362</v>
+        <v>1.017191353235071</v>
       </c>
       <c r="N9">
-        <v>1.063885840389197</v>
+        <v>1.029471687036982</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.054331469523272</v>
+        <v>0.9883104453309647</v>
       </c>
       <c r="D10">
-        <v>1.054863166677429</v>
+        <v>1.007873318843778</v>
       </c>
       <c r="E10">
-        <v>1.058201390388278</v>
+        <v>0.9983988332968861</v>
       </c>
       <c r="F10">
-        <v>1.059100351520699</v>
+        <v>0.9892788540113899</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047708401880986</v>
+        <v>1.035509901646806</v>
       </c>
       <c r="J10">
-        <v>1.06053952891478</v>
+        <v>1.016995653455037</v>
       </c>
       <c r="K10">
-        <v>1.05824269604313</v>
+        <v>1.022101858436521</v>
       </c>
       <c r="L10">
-        <v>1.061569497286902</v>
+        <v>1.012797057607608</v>
       </c>
       <c r="M10">
-        <v>1.062465395955259</v>
+        <v>1.003844418256542</v>
       </c>
       <c r="N10">
-        <v>1.062045616691423</v>
+        <v>1.018439903933975</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.053300959481014</v>
+        <v>0.9818166771290713</v>
       </c>
       <c r="D11">
-        <v>1.054040659164798</v>
+        <v>1.002730491353041</v>
       </c>
       <c r="E11">
-        <v>1.057205154785645</v>
+        <v>0.9923493256636192</v>
       </c>
       <c r="F11">
-        <v>1.057970793414922</v>
+        <v>0.9824959523450051</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047329096021486</v>
+        <v>1.032713256828264</v>
       </c>
       <c r="J11">
-        <v>1.059740466652838</v>
+        <v>1.011965968499681</v>
       </c>
       <c r="K11">
-        <v>1.057542146652254</v>
+        <v>1.017601097661328</v>
       </c>
       <c r="L11">
-        <v>1.06069538728246</v>
+        <v>1.007416979279345</v>
       </c>
       <c r="M11">
-        <v>1.061458313959382</v>
+        <v>0.9977556951524404</v>
       </c>
       <c r="N11">
-        <v>1.061245419669416</v>
+        <v>1.01340307624907</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.052917727987501</v>
+        <v>0.9793497777149333</v>
       </c>
       <c r="D12">
-        <v>1.05373472919527</v>
+        <v>1.000778174326166</v>
       </c>
       <c r="E12">
-        <v>1.056834725047815</v>
+        <v>0.9900529105723821</v>
       </c>
       <c r="F12">
-        <v>1.057550826054682</v>
+        <v>0.979920184221597</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047187717722346</v>
+        <v>1.031648802688356</v>
       </c>
       <c r="J12">
-        <v>1.059443144930911</v>
+        <v>1.010054554440189</v>
       </c>
       <c r="K12">
-        <v>1.057281416796302</v>
+        <v>1.015890480914422</v>
       </c>
       <c r="L12">
-        <v>1.060370231405318</v>
+        <v>1.005373195000262</v>
       </c>
       <c r="M12">
-        <v>1.061083759824712</v>
+        <v>0.9954424649636571</v>
       </c>
       <c r="N12">
-        <v>1.060947675716541</v>
+        <v>1.011488947762371</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.052999953184664</v>
+        <v>0.9798815142682837</v>
       </c>
       <c r="D13">
-        <v>1.053800371085979</v>
+        <v>1.001198927308673</v>
       </c>
       <c r="E13">
-        <v>1.056914201006909</v>
+        <v>0.9905478194182291</v>
       </c>
       <c r="F13">
-        <v>1.05764092875159</v>
+        <v>0.9804753438901699</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047218065972597</v>
+        <v>1.031878334248665</v>
       </c>
       <c r="J13">
-        <v>1.059506944875616</v>
+        <v>1.010466586475511</v>
       </c>
       <c r="K13">
-        <v>1.057337367651885</v>
+        <v>1.01625923691297</v>
       </c>
       <c r="L13">
-        <v>1.060439999982896</v>
+        <v>1.005813725667291</v>
       </c>
       <c r="M13">
-        <v>1.061164124826294</v>
+        <v>0.9959410871354298</v>
       </c>
       <c r="N13">
-        <v>1.061011566264484</v>
+        <v>1.011901564930443</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.053269290779158</v>
+        <v>0.9816139155836798</v>
       </c>
       <c r="D14">
-        <v>1.054015379393981</v>
+        <v>1.002569995505012</v>
       </c>
       <c r="E14">
-        <v>1.057174542831903</v>
+        <v>0.9921605410159168</v>
       </c>
       <c r="F14">
-        <v>1.057936087000284</v>
+        <v>0.9822842230585027</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047317419614181</v>
+        <v>1.032625806915009</v>
       </c>
       <c r="J14">
-        <v>1.059715900493678</v>
+        <v>1.01180887734706</v>
       </c>
       <c r="K14">
-        <v>1.057520605185495</v>
+        <v>1.017460513147935</v>
       </c>
       <c r="L14">
-        <v>1.060668519491463</v>
+        <v>1.007248993182186</v>
       </c>
       <c r="M14">
-        <v>1.061427363038711</v>
+        <v>0.9975655681009692</v>
       </c>
       <c r="N14">
-        <v>1.061220818623491</v>
+        <v>1.013245762008993</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.053435178026563</v>
+        <v>0.9826738621025222</v>
       </c>
       <c r="D15">
-        <v>1.054147797987478</v>
+        <v>1.003409053209397</v>
       </c>
       <c r="E15">
-        <v>1.057334896892201</v>
+        <v>0.9931474931504403</v>
       </c>
       <c r="F15">
-        <v>1.058117890454525</v>
+        <v>0.9833910881242791</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047378569966576</v>
+        <v>1.033082873704341</v>
       </c>
       <c r="J15">
-        <v>1.059844576506181</v>
+        <v>1.012630051812805</v>
       </c>
       <c r="K15">
-        <v>1.05763343544566</v>
+        <v>1.018195393041527</v>
       </c>
       <c r="L15">
-        <v>1.060809255000428</v>
+        <v>1.008127151629536</v>
       </c>
       <c r="M15">
-        <v>1.061589488956854</v>
+        <v>0.998559459058556</v>
       </c>
       <c r="N15">
-        <v>1.061349677370692</v>
+        <v>1.01406810263667</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.05439979803063</v>
+        <v>0.9887340462516817</v>
       </c>
       <c r="D16">
-        <v>1.054917696192956</v>
+        <v>1.008208971547481</v>
       </c>
       <c r="E16">
-        <v>1.058267454065652</v>
+        <v>0.9987936810545064</v>
       </c>
       <c r="F16">
-        <v>1.05917526130299</v>
+        <v>0.9897214498439184</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047733507101708</v>
+        <v>1.035692044345537</v>
       </c>
       <c r="J16">
-        <v>1.060592488408415</v>
+        <v>1.017323646411392</v>
       </c>
       <c r="K16">
-        <v>1.058289117469916</v>
+        <v>1.022395328530626</v>
       </c>
       <c r="L16">
-        <v>1.061627443361006</v>
+        <v>1.013148008272648</v>
       </c>
       <c r="M16">
-        <v>1.062532166141986</v>
+        <v>1.004241568479423</v>
       </c>
       <c r="N16">
-        <v>1.062098651393614</v>
+        <v>1.018768362677949</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.055004081891487</v>
+        <v>0.9924438852607711</v>
       </c>
       <c r="D17">
-        <v>1.055399904272894</v>
+        <v>1.011149456036929</v>
       </c>
       <c r="E17">
-        <v>1.058851750512421</v>
+        <v>1.002252887848337</v>
       </c>
       <c r="F17">
-        <v>1.059837824670491</v>
+        <v>0.9935983808289354</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047955286752287</v>
+        <v>1.037285615559199</v>
       </c>
       <c r="J17">
-        <v>1.061060726930274</v>
+        <v>1.020195562907013</v>
       </c>
       <c r="K17">
-        <v>1.058699501016777</v>
+        <v>1.024964778801591</v>
       </c>
       <c r="L17">
-        <v>1.062139839745842</v>
+        <v>1.016221530752393</v>
       </c>
       <c r="M17">
-        <v>1.063122641706904</v>
+        <v>1.00771959242577</v>
       </c>
       <c r="N17">
-        <v>1.062567554867882</v>
+        <v>1.021644357624408</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.055356267041737</v>
+        <v>0.994576486953769</v>
       </c>
       <c r="D18">
-        <v>1.055680908187163</v>
+        <v>1.012840493664737</v>
       </c>
       <c r="E18">
-        <v>1.059192321931267</v>
+        <v>1.004242374588366</v>
       </c>
       <c r="F18">
-        <v>1.060224039478847</v>
+        <v>0.9958276516768645</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048084337589997</v>
+        <v>1.03820032066813</v>
       </c>
       <c r="J18">
-        <v>1.061333518655589</v>
+        <v>1.02184596555281</v>
       </c>
       <c r="K18">
-        <v>1.058938545961039</v>
+        <v>1.026441204243935</v>
       </c>
       <c r="L18">
-        <v>1.062438415320103</v>
+        <v>1.017988278734716</v>
       </c>
       <c r="M18">
-        <v>1.063466756849099</v>
+        <v>1.009718796050023</v>
       </c>
       <c r="N18">
-        <v>1.062840733988736</v>
+        <v>1.023297104031265</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.055476305357677</v>
+        <v>0.9952984952799652</v>
       </c>
       <c r="D19">
-        <v>1.055776679431187</v>
+        <v>1.013413119597045</v>
       </c>
       <c r="E19">
-        <v>1.059308407793279</v>
+        <v>1.004916089091312</v>
       </c>
       <c r="F19">
-        <v>1.060355687208057</v>
+        <v>0.9965824930913968</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048128288242147</v>
+        <v>1.038509766873454</v>
       </c>
       <c r="J19">
-        <v>1.061426478923031</v>
+        <v>1.02240463044955</v>
       </c>
       <c r="K19">
-        <v>1.059019999251633</v>
+        <v>1.026940949306858</v>
       </c>
       <c r="L19">
-        <v>1.062540171863459</v>
+        <v>1.018586409582802</v>
       </c>
       <c r="M19">
-        <v>1.063584040814661</v>
+        <v>1.010395617319409</v>
       </c>
       <c r="N19">
-        <v>1.062933826270421</v>
+        <v>1.023856562296238</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.054939277350045</v>
+        <v>0.9920491274094476</v>
       </c>
       <c r="D20">
-        <v>1.055348194853481</v>
+        <v>1.010836489661065</v>
       </c>
       <c r="E20">
-        <v>1.058789085810984</v>
+        <v>1.001884698378737</v>
       </c>
       <c r="F20">
-        <v>1.059766763553434</v>
+        <v>0.9931857790085911</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047931523940483</v>
+        <v>1.037116186859101</v>
       </c>
       <c r="J20">
-        <v>1.061010522934999</v>
+        <v>1.019890020214675</v>
       </c>
       <c r="K20">
-        <v>1.058655504402964</v>
+        <v>1.02469143170327</v>
       </c>
       <c r="L20">
-        <v>1.062084895208521</v>
+        <v>1.015894488396063</v>
       </c>
       <c r="M20">
-        <v>1.063059320306725</v>
+        <v>1.007349515975244</v>
       </c>
       <c r="N20">
-        <v>1.062517279577175</v>
+        <v>1.0213383810264</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.053189990202382</v>
+        <v>0.9811053282820015</v>
       </c>
       <c r="D21">
-        <v>1.053952076304611</v>
+        <v>1.002167446311322</v>
       </c>
       <c r="E21">
-        <v>1.057097889324004</v>
+        <v>0.9916870401185274</v>
       </c>
       <c r="F21">
-        <v>1.057849181376418</v>
+        <v>0.9817531574497393</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047288175931405</v>
+        <v>1.032406423686267</v>
       </c>
       <c r="J21">
-        <v>1.059654382546489</v>
+        <v>1.011414834379651</v>
       </c>
       <c r="K21">
-        <v>1.057466660569342</v>
+        <v>1.017107871779005</v>
       </c>
       <c r="L21">
-        <v>1.060601239313482</v>
+        <v>1.0068276343244</v>
       </c>
       <c r="M21">
-        <v>1.061349859265386</v>
+        <v>0.9970886687524341</v>
       </c>
       <c r="N21">
-        <v>1.061159213313762</v>
+        <v>1.012851159455373</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.052087510345933</v>
+        <v>0.973903947721954</v>
       </c>
       <c r="D22">
-        <v>1.053071881301998</v>
+        <v>0.9964711415464017</v>
       </c>
       <c r="E22">
-        <v>1.056032343012097</v>
+        <v>0.9849867950242142</v>
       </c>
       <c r="F22">
-        <v>1.056641205306375</v>
+        <v>0.9742357863215719</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046880856217038</v>
+        <v>1.029295331689779</v>
       </c>
       <c r="J22">
-        <v>1.058798742401892</v>
+        <v>1.00583384383594</v>
       </c>
       <c r="K22">
-        <v>1.056716205829816</v>
+        <v>1.01211283145672</v>
       </c>
       <c r="L22">
-        <v>1.059665667354116</v>
+        <v>1.000861650964166</v>
       </c>
       <c r="M22">
-        <v>1.060272275753269</v>
+        <v>0.9903355182602984</v>
       </c>
       <c r="N22">
-        <v>1.060302358062016</v>
+        <v>1.007262243264942</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.052672209330508</v>
+        <v>0.9777539867292697</v>
       </c>
       <c r="D23">
-        <v>1.053538719652417</v>
+        <v>0.9995156765523318</v>
       </c>
       <c r="E23">
-        <v>1.05659742361021</v>
+        <v>0.9885679074997556</v>
       </c>
       <c r="F23">
-        <v>1.057281800150762</v>
+        <v>0.9782542386895409</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04709705314671</v>
+        <v>1.03095966794322</v>
       </c>
       <c r="J23">
-        <v>1.05925261905246</v>
+        <v>1.008817915220292</v>
       </c>
       <c r="K23">
-        <v>1.05711432137197</v>
+        <v>1.014783699979961</v>
       </c>
       <c r="L23">
-        <v>1.060161894596573</v>
+        <v>1.004051138193826</v>
       </c>
       <c r="M23">
-        <v>1.060843790404528</v>
+        <v>0.9939460252553336</v>
       </c>
       <c r="N23">
-        <v>1.060756879269488</v>
+        <v>1.010250552372937</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.054968560608621</v>
+        <v>0.9922275977654422</v>
       </c>
       <c r="D24">
-        <v>1.055371560917526</v>
+        <v>1.010977979863795</v>
       </c>
       <c r="E24">
-        <v>1.058817402030237</v>
+        <v>1.002051154170128</v>
       </c>
       <c r="F24">
-        <v>1.059798873777315</v>
+        <v>0.9933723147204861</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047942262288613</v>
+        <v>1.037192789953131</v>
       </c>
       <c r="J24">
-        <v>1.061033208960327</v>
+        <v>1.020028157945101</v>
       </c>
       <c r="K24">
-        <v>1.058675385582752</v>
+        <v>1.024815014105505</v>
       </c>
       <c r="L24">
-        <v>1.062109723196357</v>
+        <v>1.016042344737825</v>
       </c>
       <c r="M24">
-        <v>1.063087933446593</v>
+        <v>1.007516828283249</v>
       </c>
       <c r="N24">
-        <v>1.062539997819261</v>
+        <v>1.021476714928248</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.057622271520727</v>
+        <v>1.007809068819329</v>
       </c>
       <c r="D25">
-        <v>1.05748830505966</v>
+        <v>1.023343669023955</v>
       </c>
       <c r="E25">
-        <v>1.061384231616193</v>
+        <v>1.016602597855248</v>
       </c>
       <c r="F25">
-        <v>1.062710145417196</v>
+        <v>1.009671029819349</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048910956769273</v>
+        <v>1.043851039918974</v>
       </c>
       <c r="J25">
-        <v>1.063086810754482</v>
+        <v>1.032076454632394</v>
       </c>
       <c r="K25">
-        <v>1.060474198607473</v>
+        <v>1.035590098697588</v>
       </c>
       <c r="L25">
-        <v>1.064358469606574</v>
+        <v>1.028948533200068</v>
       </c>
       <c r="M25">
-        <v>1.065680437858125</v>
+        <v>1.02212104789076</v>
       </c>
       <c r="N25">
-        <v>1.064596515963515</v>
+        <v>1.033542121578795</v>
       </c>
     </row>
   </sheetData>
